--- a/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi3.xlsx
+++ b/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t xml:space="preserve">xrtos or circle</t>
   </si>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES1_INPUTSIZE20</t>
   </si>
   <si>
-    <t xml:space="preserve">'4679'</t>
+    <t xml:space="preserve">'5689'</t>
   </si>
   <si>
     <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES1_INPUTSIZE50</t>
@@ -142,7 +142,34 @@
     <t xml:space="preserve">'32'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES2_WRITEATTACK1_INPUTSIZE100</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES2_WRITEATTACK1_INPUTSIZE100</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">'211'</t>
@@ -151,7 +178,34 @@
     <t xml:space="preserve">'322'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES3_WRITEATTACK1_INPUTSIZE100</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES3_WRITEATTACK1_INPUTSIZE100</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">'2111'</t>
@@ -160,28 +214,244 @@
     <t xml:space="preserve">'3222'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE150</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE120</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CORES4_WRITEATTACK1_INPUTSIZE150</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -454,13 +724,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ75"/>
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -1105,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
@@ -1173,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
@@ -1243,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
@@ -1288,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>131072</v>
@@ -1301,21 +1571,21 @@
       </c>
       <c r="R13" s="16" t="n">
         <f aca="false">INT(T13/U13)</f>
-        <v>362271</v>
+        <v>2852</v>
       </c>
       <c r="S13" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>7245422</v>
+        <f aca="false">S$3</f>
+        <v>57048</v>
       </c>
       <c r="T13" s="16" t="n">
         <f aca="false">INT(S13/10)</f>
-        <v>724542</v>
+        <v>5704</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">A13+1</f>
         <v>12</v>
@@ -1360,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>131072</v>
@@ -1373,21 +1643,21 @@
       </c>
       <c r="R14" s="16" t="n">
         <f aca="false">INT(T14/U14)</f>
-        <v>2852</v>
+        <v>40301</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>57048</v>
+        <f aca="false">S$4</f>
+        <v>806027</v>
       </c>
       <c r="T14" s="16" t="n">
         <f aca="false">INT(S14/10)</f>
-        <v>5704</v>
+        <v>80602</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">A14+1</f>
         <v>13</v>
@@ -1432,7 +1702,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>131072</v>
@@ -1445,21 +1715,21 @@
       </c>
       <c r="R15" s="16" t="n">
         <f aca="false">INT(T15/U15)</f>
-        <v>40301</v>
+        <v>162899</v>
       </c>
       <c r="S15" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>806027</v>
+        <f aca="false">S$5</f>
+        <v>3257992</v>
       </c>
       <c r="T15" s="16" t="n">
         <f aca="false">INT(S15/10)</f>
-        <v>80602</v>
+        <v>325799</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">A15+1</f>
         <v>14</v>
@@ -1504,7 +1774,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>131072</v>
@@ -1517,21 +1787,21 @@
       </c>
       <c r="R16" s="16" t="n">
         <f aca="false">INT(T16/U16)</f>
-        <v>162899</v>
+        <v>238335</v>
       </c>
       <c r="S16" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3257992</v>
+        <f aca="false">S$6</f>
+        <v>4766700</v>
       </c>
       <c r="T16" s="16" t="n">
         <f aca="false">INT(S16/10)</f>
-        <v>325799</v>
+        <v>476670</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
@@ -1576,7 +1846,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>131072</v>
@@ -1589,21 +1859,21 @@
       </c>
       <c r="R17" s="16" t="n">
         <f aca="false">INT(T17/U17)</f>
-        <v>238335</v>
+        <v>362271</v>
       </c>
       <c r="S17" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>4766700</v>
+        <f aca="false">S$7</f>
+        <v>7245422</v>
       </c>
       <c r="T17" s="16" t="n">
         <f aca="false">INT(S17/10)</f>
-        <v>476670</v>
+        <v>724542</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
@@ -1633,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>30</v>
@@ -1648,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>131072</v>
@@ -1661,21 +1931,23 @@
       </c>
       <c r="R18" s="16" t="n">
         <f aca="false">INT(T18/U18)</f>
-        <v>362271</v>
+        <v>481037</v>
       </c>
       <c r="S18" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>7245422</v>
+        <f aca="false">S$8</f>
+        <v>9620755</v>
       </c>
       <c r="T18" s="16" t="n">
         <f aca="false">INT(S18/10)</f>
-        <v>724542</v>
+        <v>962075</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
@@ -1705,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>30</v>
@@ -1720,7 +1992,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>131072</v>
@@ -1733,15 +2005,15 @@
       </c>
       <c r="R19" s="16" t="n">
         <f aca="false">INT(T19/U19)</f>
-        <v>481037</v>
+        <v>656309</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>9620755</v>
+        <f aca="false">S$9</f>
+        <v>13126189</v>
       </c>
       <c r="T19" s="16" t="n">
         <f aca="false">INT(S19/10)</f>
-        <v>962075</v>
+        <v>1312618</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>2</v>
@@ -1749,7 +2021,7 @@
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
@@ -1779,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
@@ -1794,7 +2066,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>131072</v>
@@ -1807,15 +2079,15 @@
       </c>
       <c r="R20" s="16" t="n">
         <f aca="false">INT(T20/U20)</f>
-        <v>656309</v>
+        <v>1343455</v>
       </c>
       <c r="S20" s="0" t="n">
-        <f aca="false">S$9</f>
-        <v>13126189</v>
+        <f aca="false">S$10</f>
+        <v>26869106</v>
       </c>
       <c r="T20" s="16" t="n">
         <f aca="false">INT(S20/10)</f>
-        <v>1312618</v>
+        <v>2686910</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>2</v>
@@ -1824,78 +2096,18 @@
       <c r="W20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <f aca="false">A20+1</f>
-        <v>19</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>131072</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>131072</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>131072</v>
-      </c>
-      <c r="R21" s="16" t="n">
-        <f aca="false">INT(T21/U21)</f>
-        <v>1343455</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <f aca="false">S$10</f>
-        <v>26869106</v>
-      </c>
-      <c r="T21" s="16" t="n">
-        <f aca="false">INT(S21/10)</f>
-        <v>2686910</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
@@ -2008,6 +2220,11 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
@@ -2583,27 +2800,27 @@
       <c r="A60" s="0"/>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
@@ -2852,25 +3069,6 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
